--- a/TS Jatai Working/TTD Samhita PaaraayaNam-Samhita.xlsx
+++ b/TS Jatai Working/TTD Samhita PaaraayaNam-Samhita.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -151,9 +151,6 @@
     <t>1.8.21.1</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>9 min 55sec</t>
   </si>
   <si>
@@ -251,6 +248,105 @@
   </si>
   <si>
     <t>2.6.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_n7pg_y-SDQ&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=483</t>
+  </si>
+  <si>
+    <t>video missing</t>
+  </si>
+  <si>
+    <t>2.6.12.6</t>
+  </si>
+  <si>
+    <t>9 min 05 sec</t>
+  </si>
+  <si>
+    <t>3.1.1.1</t>
+  </si>
+  <si>
+    <t>3.1.11.8</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>48 min 55 sec</t>
+  </si>
+  <si>
+    <t>3.2.11.3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evSLEXG1WKo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=482</t>
+  </si>
+  <si>
+    <t>3.3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.1.1</t>
+  </si>
+  <si>
+    <t>3.3.4.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lVn7Whe2Ta0&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=481</t>
+  </si>
+  <si>
+    <t>3.3.11.5</t>
+  </si>
+  <si>
+    <t>27 min 54 sec</t>
+  </si>
+  <si>
+    <t>3.4.1.1</t>
+  </si>
+  <si>
+    <t>3.4.10.5</t>
+  </si>
+  <si>
+    <t>3.4.11.1</t>
+  </si>
+  <si>
+    <t>3.4.11.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cCKq709geLE&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=480</t>
+  </si>
+  <si>
+    <t>8 min 58 sec</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t>3.5.11.5</t>
+  </si>
+  <si>
+    <t>49 min 30 sec</t>
+  </si>
+  <si>
+    <t>4.1.1.1</t>
+  </si>
+  <si>
+    <t>4.1.2.5</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TTp9nkj6xFs&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=479</t>
+  </si>
+  <si>
+    <t>4.2.2.4</t>
+  </si>
+  <si>
+    <t>42 min 26 sec</t>
+  </si>
+  <si>
+    <t>4.1.11.4</t>
+  </si>
+  <si>
+    <t>4.2.2.1</t>
   </si>
 </sst>
 </file>
@@ -662,9 +758,9 @@
   <dimension ref="A4:M181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -840,7 +936,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>22</v>
@@ -868,7 +964,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>25</v>
@@ -1081,21 +1177,23 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
       <c r="E21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1123,8 +1221,11 @@
       <c r="B23" s="16">
         <v>43937</v>
       </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>10</v>
@@ -1136,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1175,10 +1276,10 @@
         <v>10</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>42</v>
@@ -1197,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>15</v>
@@ -1238,19 +1339,19 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1271,19 +1372,19 @@
         <v>2</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1295,19 +1396,19 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1328,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1352,19 +1453,19 @@
         <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,22 +1487,22 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1423,22 +1524,22 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,19 +1551,19 @@
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1480,27 +1581,51 @@
         <v>12</v>
       </c>
       <c r="B41" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
       <c r="E41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+      <c r="B42" s="2">
+        <v>43943</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -1513,24 +1638,55 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="A44" s="1">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43944</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="1"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="B45" s="2">
+        <v>43944</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -1543,26 +1699,57 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="A47" s="1">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43945</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+      <c r="B48" s="2">
+        <v>43945</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -1572,37 +1759,82 @@
       <c r="H49" s="11"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43946</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>43946</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>43946</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -1612,27 +1844,58 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43947</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>43947</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -1642,7 +1905,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -1652,7 +1915,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -1662,7 +1925,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -1672,7 +1935,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -1682,7 +1945,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -1692,7 +1955,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -1702,7 +1965,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -1712,7 +1975,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>

--- a/TS Jatai Working/TTD Samhita PaaraayaNam-Samhita.xlsx
+++ b/TS Jatai Working/TTD Samhita PaaraayaNam-Samhita.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="245">
   <si>
     <t>Date</t>
   </si>
@@ -347,13 +347,415 @@
   </si>
   <si>
     <t>4.2.2.1</t>
+  </si>
+  <si>
+    <t>4.2.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pwIv386BsrI&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=481</t>
+  </si>
+  <si>
+    <t>4.2.11.3</t>
+  </si>
+  <si>
+    <t>46 min 07 sec</t>
+  </si>
+  <si>
+    <t>4.3.3.1</t>
+  </si>
+  <si>
+    <t>4.3.4.3</t>
+  </si>
+  <si>
+    <t>4.3.5.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P4qw15bvqqI&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=480</t>
+  </si>
+  <si>
+    <t>4.3.13.8</t>
+  </si>
+  <si>
+    <t>25 min 17 sec</t>
+  </si>
+  <si>
+    <t>4.4.4.1</t>
+  </si>
+  <si>
+    <t>4.4.10.3</t>
+  </si>
+  <si>
+    <t>4.4.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r7JQ__y4Yao&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=479</t>
+  </si>
+  <si>
+    <t>4.4.12.5</t>
+  </si>
+  <si>
+    <t>8 min 53 sec</t>
+  </si>
+  <si>
+    <t>4.5.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yl1ELEXUMzg&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=478</t>
+  </si>
+  <si>
+    <t>vedio missing</t>
+  </si>
+  <si>
+    <t>4.6.1.1</t>
+  </si>
+  <si>
+    <t>4.5.11.2</t>
+  </si>
+  <si>
+    <t>4.6.6.7</t>
+  </si>
+  <si>
+    <t>4.6.7.1</t>
+  </si>
+  <si>
+    <t>13 min 24 sec</t>
+  </si>
+  <si>
+    <t>4.6.9.4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5C2aWbxAx40&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=477</t>
+  </si>
+  <si>
+    <t>4.7.1.1</t>
+  </si>
+  <si>
+    <t>4.7.11.2</t>
+  </si>
+  <si>
+    <t>20 min 25 se</t>
+  </si>
+  <si>
+    <t>from 19 min 32 sec to 20 min 25 sec. Here chamakam last  panchati is given and other prior pancaatis are  removed by the viedo provider</t>
+  </si>
+  <si>
+    <t>4.7.12.1</t>
+  </si>
+  <si>
+    <t>it appears full rudram removed by viedo provider</t>
+  </si>
+  <si>
+    <t>4.7.15.7</t>
+  </si>
+  <si>
+    <t>5.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5igSoT-s6kU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=477</t>
+  </si>
+  <si>
+    <t>5.1.11.4</t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ui4iTCgqSbo&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=476</t>
+  </si>
+  <si>
+    <t>5.2.8.7</t>
+  </si>
+  <si>
+    <t>5.2.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g5lVlsJiUJU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=475</t>
+  </si>
+  <si>
+    <t>15 min 29 sec</t>
+  </si>
+  <si>
+    <t>5.2.12.2</t>
+  </si>
+  <si>
+    <t>5.3.1.1</t>
+  </si>
+  <si>
+    <t>5.3.9.2</t>
+  </si>
+  <si>
+    <t>5.3.10.1</t>
+  </si>
+  <si>
+    <t>12min 29 sec</t>
+  </si>
+  <si>
+    <t>5.3.12.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-4xKiQLVt7M&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=474</t>
+  </si>
+  <si>
+    <t>5.4.1.1</t>
+  </si>
+  <si>
+    <t>5.4.8.6</t>
+  </si>
+  <si>
+    <t>5.4.9.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1NjxxJTypN8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=473</t>
+  </si>
+  <si>
+    <t>10 min 49 sec</t>
+  </si>
+  <si>
+    <t>5.4.12.3</t>
+  </si>
+  <si>
+    <t>5.5.1.1</t>
+  </si>
+  <si>
+    <t>5.5.10.7</t>
+  </si>
+  <si>
+    <t>5.5.11.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xSPxx1HQ4IQ&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=472</t>
+  </si>
+  <si>
+    <t>5.5.24.1</t>
+  </si>
+  <si>
+    <t>6 min 34 sec</t>
+  </si>
+  <si>
+    <t>5.6.1.1</t>
+  </si>
+  <si>
+    <t>5.6.1.4</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>5.6.2.1 starts from 14 min 01 sec</t>
+  </si>
+  <si>
+    <t>5.6.23.1</t>
+  </si>
+  <si>
+    <t>5.7.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C1b0fZUL3os&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=471</t>
+  </si>
+  <si>
+    <t>5.7.26.1</t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>6.1.8.5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IhdreOlN1UM&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=470</t>
+  </si>
+  <si>
+    <t>6.1.9.1</t>
+  </si>
+  <si>
+    <t>6.1.11.6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NNxdrJ8H0Fc&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=469</t>
+  </si>
+  <si>
+    <t>19 min 44 sec</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XEqpaGyfpq8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=468</t>
+  </si>
+  <si>
+    <t>6.2.3.5</t>
+  </si>
+  <si>
+    <t>6.2.4.1</t>
+  </si>
+  <si>
+    <t>6.3.1.6</t>
+  </si>
+  <si>
+    <t>6.2.11.4</t>
+  </si>
+  <si>
+    <t>55 min 38 sec</t>
+  </si>
+  <si>
+    <t>6.3.1.1</t>
+  </si>
+  <si>
+    <t>6.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xb4Iy0MkLwU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=467</t>
+  </si>
+  <si>
+    <t>6.4.2.6</t>
+  </si>
+  <si>
+    <t>6.3.11.6</t>
+  </si>
+  <si>
+    <t>49 min 44 sec</t>
+  </si>
+  <si>
+    <t>6.4.1.1</t>
+  </si>
+  <si>
+    <t>6.4.3.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T3aJvyoLpDc&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=466</t>
+  </si>
+  <si>
+    <t>50 min 04 sec</t>
+  </si>
+  <si>
+    <t>6.4.11.4</t>
+  </si>
+  <si>
+    <t>6.5.1.1</t>
+  </si>
+  <si>
+    <t>6.5.1.5</t>
+  </si>
+  <si>
+    <t>6.5.2.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WrfQUXe3loU&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=465</t>
+  </si>
+  <si>
+    <t>6.5.9.4</t>
+  </si>
+  <si>
+    <t>6.5.10.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3dDyspR86YY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=464</t>
+  </si>
+  <si>
+    <t>6.5.11.4</t>
+  </si>
+  <si>
+    <t>7 min 29 sec</t>
+  </si>
+  <si>
+    <t>6.6.1.1</t>
+  </si>
+  <si>
+    <t>6.6.6.2</t>
+  </si>
+  <si>
+    <t>6.6.7.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kt_Vh_E8p-Q&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=463</t>
+  </si>
+  <si>
+    <t>22 min 06 sec</t>
+  </si>
+  <si>
+    <t>6.6.11.6</t>
+  </si>
+  <si>
+    <t>7.1.1.1</t>
+  </si>
+  <si>
+    <t>44 min 01 sec</t>
+  </si>
+  <si>
+    <t>7.1.7.4</t>
+  </si>
+  <si>
+    <t>7.1.8.1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sk0wet5i9c8&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=462</t>
+  </si>
+  <si>
+    <t>19 min 34 sec</t>
+  </si>
+  <si>
+    <t>7.1.20.1</t>
+  </si>
+  <si>
+    <t>7.2.1.1</t>
+  </si>
+  <si>
+    <t>7.2.4.3</t>
+  </si>
+  <si>
+    <t>7.2.5.1</t>
+  </si>
+  <si>
+    <t>7.4.3.1</t>
+  </si>
+  <si>
+    <t>7.2.20.1</t>
+  </si>
+  <si>
+    <t>viedo missing</t>
+  </si>
+  <si>
+    <t>7.3.1.1</t>
+  </si>
+  <si>
+    <t>7.3.20.1</t>
+  </si>
+  <si>
+    <t>7.4.1.1</t>
+  </si>
+  <si>
+    <t>7.4.2.5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jTNeb2tYckY&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=461</t>
+  </si>
+  <si>
+    <t>7.4.22.1</t>
+  </si>
+  <si>
+    <t>7.5.1.1</t>
+  </si>
+  <si>
+    <t>7.5.25.2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RepGNtIJZJI&amp;list=PLjhrDIztP9pcSE8dR7xYZb7zwX5SXxNKy&amp;index=460</t>
+  </si>
+  <si>
+    <t>TAITTIRIYA SAMHITA PARAYANAM OVER</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dasha Shanti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +796,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -422,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -445,11 +854,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -755,12 +1187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M181"/>
+  <sheetPr transitionEvaluation="1" transitionEntry="1"/>
+  <dimension ref="A4:M185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -769,10 +1202,10 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="138.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -785,14 +1218,14 @@
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
@@ -812,14 +1245,14 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="3"/>
@@ -837,16 +1270,16 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -865,16 +1298,16 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -893,16 +1326,16 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -917,10 +1350,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -938,16 +1371,16 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -966,16 +1399,16 @@
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -994,16 +1427,16 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1018,10 +1451,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1039,16 +1472,16 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1067,16 +1500,16 @@
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1091,10 +1524,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1112,16 +1545,16 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="16" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1140,16 +1573,16 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1164,10 +1597,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1180,16 +1613,16 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="16" t="s">
         <v>79</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -1204,10 +1637,10 @@
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="11"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1218,22 +1651,22 @@
       <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>43937</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1248,10 +1681,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1269,16 +1702,16 @@
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="22" t="s">
         <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1297,16 +1730,16 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1321,10 +1754,10 @@
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,16 +1771,16 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1356,8 +1789,8 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1371,7 +1804,7 @@
       <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -1380,7 +1813,7 @@
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1395,7 +1828,7 @@
       <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -1404,7 +1837,7 @@
       <c r="G31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -1413,8 +1846,8 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1428,7 +1861,7 @@
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="12" t="s">
@@ -1437,7 +1870,7 @@
       <c r="G33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="16" t="s">
         <v>65</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -1452,7 +1885,7 @@
       <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -1461,7 +1894,7 @@
       <c r="G34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -1472,10 +1905,10 @@
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,7 +1922,7 @@
       <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F36" s="12" t="s">
@@ -1498,7 +1931,7 @@
       <c r="G36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -1509,10 +1942,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,7 +1959,7 @@
       <c r="D38" s="4">
         <v>3</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="12" t="s">
@@ -1535,7 +1968,7 @@
       <c r="G38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I38" s="13" t="s">
@@ -1550,7 +1983,7 @@
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F39" s="12" t="s">
@@ -1559,7 +1992,7 @@
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="13" t="s">
@@ -1570,10 +2003,10 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,7 +2020,7 @@
       <c r="D41" s="4">
         <v>2</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="12" t="s">
@@ -1596,7 +2029,7 @@
       <c r="G41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="16" t="s">
         <v>81</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -1611,7 +2044,7 @@
       <c r="D42" s="4">
         <v>1</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F42" s="12" t="s">
@@ -1620,7 +2053,7 @@
       <c r="G42" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -1631,10 +2064,10 @@
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,7 +2081,7 @@
       <c r="D44" s="4">
         <v>1</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="12" t="s">
@@ -1657,7 +2090,7 @@
       <c r="G44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="16" t="s">
         <v>85</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -1672,7 +2105,7 @@
       <c r="D45" s="4">
         <v>1</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="16" t="s">
         <v>89</v>
       </c>
       <c r="F45" s="12" t="s">
@@ -1681,7 +2114,7 @@
       <c r="G45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -1692,10 +2125,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1709,7 +2142,7 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="16" t="s">
         <v>90</v>
       </c>
       <c r="F47" s="12" t="s">
@@ -1718,7 +2151,7 @@
       <c r="G47" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="16" t="s">
         <v>93</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -1733,7 +2166,7 @@
       <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F48" s="12" t="s">
@@ -1742,7 +2175,7 @@
       <c r="G48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -1753,10 +2186,10 @@
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1770,7 +2203,7 @@
       <c r="D50" s="4">
         <v>2</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F50" s="12" t="s">
@@ -1779,7 +2212,7 @@
       <c r="G50" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="16" t="s">
         <v>99</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -1794,7 +2227,7 @@
       <c r="D51" s="4">
         <v>1</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F51" s="12" t="s">
@@ -1803,7 +2236,7 @@
       <c r="G51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="16" t="s">
         <v>102</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -1818,7 +2251,7 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="16" t="s">
         <v>103</v>
       </c>
       <c r="F52" s="12" t="s">
@@ -1827,7 +2260,7 @@
       <c r="G52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -1838,10 +2271,10 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,7 +2288,7 @@
       <c r="D54" s="4">
         <v>2</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="12" t="s">
@@ -1864,7 +2297,7 @@
       <c r="G54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="16" t="s">
         <v>108</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -1879,7 +2312,7 @@
       <c r="D55" s="4">
         <v>1</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="12" t="s">
@@ -1888,7 +2321,7 @@
       <c r="G55" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -1899,1261 +2332,1983 @@
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43948</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="10"/>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="B58" s="2">
+        <v>43948</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+      <c r="A60" s="1">
+        <v>16</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43949</v>
+      </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="B61" s="2">
+        <v>43949</v>
+      </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="1"/>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
+      <c r="A63" s="1">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43950</v>
+      </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>18</v>
+      </c>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43951</v>
+      </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>20</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43952</v>
+      </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>43952</v>
+      </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="4"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="11"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="2">
+        <v>43952</v>
+      </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>21</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43953</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="1"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43954</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="11"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43955</v>
+      </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
+      <c r="D80" s="4">
+        <v>2</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>43955</v>
+      </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="1"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>24</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43956</v>
+      </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
+      <c r="D83" s="4">
+        <v>2</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>43956</v>
+      </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="1"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>25</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43957</v>
+      </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>43957</v>
+      </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="1"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>26</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43958</v>
+      </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
+      <c r="D89" s="4">
+        <v>2</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="2">
+        <v>43958</v>
+      </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2">
+        <v>43958</v>
+      </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>27</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43959</v>
+      </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>28</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43960</v>
+      </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>29</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43961</v>
+      </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>43961</v>
+      </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="1"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>30</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43962</v>
+      </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="2">
+        <v>43962</v>
+      </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="1"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>31</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43963</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>43963</v>
+      </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>32</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43964</v>
+      </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>43964</v>
+      </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>33</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43965</v>
+      </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
+      <c r="D109" s="4">
+        <v>2</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>34</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43966</v>
+      </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
+      <c r="D111" s="4">
+        <v>3</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>43966</v>
+      </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>35</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43967</v>
+      </c>
       <c r="C114" s="1"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
+      <c r="D114" s="4">
+        <v>2</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>43967</v>
+      </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>43967</v>
+      </c>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E116" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="11"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>36</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43968</v>
+      </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
+      <c r="D118" s="4">
+        <v>2</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>43968</v>
+      </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="16"/>
       <c r="F120" s="12"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E121" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E123" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="11"/>
+      <c r="E124" s="16"/>
       <c r="F124" s="12"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="11"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E125" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="16"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>37</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43971</v>
+      </c>
       <c r="C127" s="1"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E127" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="11"/>
+      <c r="E128" s="16"/>
       <c r="F128" s="12"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>38</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43972</v>
+      </c>
       <c r="C129" s="1"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E129" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="11"/>
+      <c r="E130" s="16"/>
       <c r="F130" s="12"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G132" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="16"/>
       <c r="F133" s="12"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="11"/>
+      <c r="E134" s="16"/>
       <c r="F134" s="12"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="11"/>
+      <c r="E135" s="16"/>
       <c r="F135" s="12"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="11"/>
+      <c r="E136" s="16"/>
       <c r="F136" s="12"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="16"/>
       <c r="F137" s="12"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="16"/>
       <c r="F138" s="12"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="16"/>
       <c r="F139" s="12"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="16"/>
       <c r="F140" s="12"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="16"/>
       <c r="F141" s="12"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="16"/>
       <c r="F142" s="12"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="16"/>
       <c r="F143" s="12"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="16"/>
       <c r="F144" s="12"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="16"/>
       <c r="F145" s="12"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="16"/>
       <c r="F146" s="12"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="16"/>
       <c r="F147" s="12"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="16"/>
       <c r="F148" s="12"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="16"/>
       <c r="F149" s="12"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="11"/>
+      <c r="E150" s="16"/>
       <c r="F150" s="12"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="16"/>
       <c r="F151" s="12"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="11"/>
+      <c r="E152" s="16"/>
       <c r="F152" s="12"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="11"/>
+      <c r="E153" s="16"/>
       <c r="F153" s="12"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="11"/>
+      <c r="E154" s="16"/>
       <c r="F154" s="12"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="16"/>
       <c r="F155" s="12"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="16"/>
       <c r="F156" s="12"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="16"/>
       <c r="F157" s="12"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="16"/>
       <c r="F158" s="12"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="11"/>
+      <c r="E159" s="16"/>
       <c r="F159" s="12"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="11"/>
+      <c r="E160" s="16"/>
       <c r="F160" s="12"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="11"/>
+      <c r="E161" s="16"/>
       <c r="F161" s="12"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="11"/>
+      <c r="E162" s="16"/>
       <c r="F162" s="12"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="11"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="11"/>
+      <c r="E163" s="16"/>
       <c r="F163" s="12"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="11"/>
+      <c r="E164" s="16"/>
       <c r="F164" s="12"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="11"/>
+      <c r="E165" s="16"/>
       <c r="F165" s="12"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="11"/>
+      <c r="E166" s="16"/>
       <c r="F166" s="12"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="11"/>
+      <c r="E167" s="16"/>
       <c r="F167" s="12"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="11"/>
+      <c r="E168" s="16"/>
       <c r="F168" s="12"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="11"/>
+      <c r="E169" s="16"/>
       <c r="F169" s="12"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="11"/>
+      <c r="E170" s="16"/>
       <c r="F170" s="12"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="11"/>
+      <c r="E171" s="16"/>
       <c r="F171" s="12"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="11"/>
+      <c r="E172" s="16"/>
       <c r="F172" s="12"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="11"/>
+      <c r="E173" s="16"/>
       <c r="F173" s="12"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="11"/>
+      <c r="E174" s="16"/>
       <c r="F174" s="12"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="11"/>
+      <c r="E175" s="16"/>
       <c r="F175" s="12"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="11"/>
+      <c r="E176" s="16"/>
       <c r="F176" s="12"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="11"/>
+      <c r="E177" s="16"/>
       <c r="F177" s="12"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="11"/>
+      <c r="E178" s="16"/>
       <c r="F178" s="12"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="11"/>
+      <c r="E179" s="16"/>
       <c r="F179" s="12"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="11"/>
+      <c r="E180" s="16"/>
       <c r="F180" s="12"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="11"/>
+      <c r="E181" s="16"/>
       <c r="F181" s="12"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
       <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
